--- a/biology/Mycologie/Pseudocercospora_cladosporioides/Pseudocercospora_cladosporioides.xlsx
+++ b/biology/Mycologie/Pseudocercospora_cladosporioides/Pseudocercospora_cladosporioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudocercospora cladosporioides ou Maladie du plomb de l'Olivier est une maladie cryptogamique des feuilles de l'olivier. Cette maladie peut aussi affecter les pétioles, les pédoncules et les olives.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cercospora cladosporioides sacc.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie se manifeste sur les feuilles par un feutrage de couleur grisâtre sur la face inférieure des feuilles et une coloration brune sur la face supérieure, couleur gris plomb d'où le nom de "plomb de l'olivier".
 </t>
@@ -572,7 +588,9 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champignon provoque la mort des feuilles qui tombent et affaiblissent ainsi l'arbre, compromettant la production pour plusieurs années.
 </t>
@@ -603,7 +621,9 @@
           <t>Contrôle de la maladie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévention et toutes les mesures allant dans ce sens sont recommandées :
 plantations aérée à densité raisonnable,
